--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\ExtentReports\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\Sample\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C367B884-B0D4-42DB-AD94-6B9F9211DAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5764B102-F2A3-422C-A27F-2F2587859F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1545" windowWidth="17715" windowHeight="11385" xr2:uid="{BF2E0E0B-C344-4884-9572-DCEC9D3BB738}"/>
+    <workbookView xWindow="1035" yWindow="1890" windowWidth="17715" windowHeight="11385" activeTab="1" xr2:uid="{BF2E0E0B-C344-4884-9572-DCEC9D3BB738}"/>
   </bookViews>
   <sheets>
     <sheet name="TC1" sheetId="1" r:id="rId1"/>
     <sheet name="TC2" sheetId="3" r:id="rId2"/>
-    <sheet name="ConnectionInfo" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="ConnectionInfo" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,16 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>12345678x@X</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
   <si>
     <t>DB_URL</t>
   </si>
@@ -72,77 +64,243 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>2022.09.30.14.32.45</t>
-  </si>
-  <si>
-    <t>2022.09.30.14.32.55</t>
+    <t>Case04</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://host:3306/dbname</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>VerificationCode</t>
+  </si>
+  <si>
+    <t>81111118</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Case07</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>Case08</t>
+  </si>
+  <si>
+    <t>Case09</t>
+  </si>
+  <si>
+    <t>Case10</t>
+  </si>
+  <si>
+    <t>Case11</t>
+  </si>
+  <si>
+    <t>Locale</t>
+  </si>
+  <si>
+    <t>tl</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>ZH</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>AppLanguage</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>简体中文</t>
+  </si>
+  <si>
+    <t>Tiếng Việt</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>ไทย</t>
+  </si>
+  <si>
+    <t>Melaya</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>2022:10:21 10:25:14</t>
+  </si>
+  <si>
+    <t>2022:10:21 10:26:00</t>
+  </si>
+  <si>
+    <t>2022:10:21 10:26:44</t>
+  </si>
+  <si>
+    <t>2022:10:21 10:27:29</t>
+  </si>
+  <si>
+    <t>2022:10:21 10:28:14</t>
+  </si>
+  <si>
+    <t>2022:10:21 10:29:00</t>
+  </si>
+  <si>
+    <t>2022:10:21 10:29:44</t>
+  </si>
+  <si>
+    <t>2022:10:21 10:30:31</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The application detect the device's language and set as default if the device's language is one of the supported languages</t>
+  </si>
+  <si>
+    <t>If the device has not been set up or out of supported languages, the application automatically selects "English" as default</t>
+  </si>
+  <si>
+    <t>NewLanguage</t>
   </si>
   <si>
     <t>Case03</t>
   </si>
   <si>
-    <t>Case04</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>2022:10:17 16:13:34</t>
+    <t>Case05</t>
+  </si>
+  <si>
+    <t>Case06</t>
+  </si>
+  <si>
+    <t>Case12</t>
+  </si>
+  <si>
+    <t>User is able to select one of the supported languages from Welcome screen</t>
+  </si>
+  <si>
+    <t>2022:10:21 11:43:41</t>
+  </si>
+  <si>
+    <t>2022:10:21 11:51:33</t>
+  </si>
+  <si>
+    <t>2022:10:21 11:52:16</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>2022:10:17 16:14:23</t>
-  </si>
-  <si>
-    <t>2022:10:17 16:15:12</t>
-  </si>
-  <si>
-    <t>2022:10:17 16:16:03</t>
-  </si>
-  <si>
-    <t>jdbc:mysql://host:3306/dbname</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>sm</t>
+    <t>2022:10:21 11:52:59</t>
+  </si>
+  <si>
+    <t>2022:10:21 11:53:42</t>
+  </si>
+  <si>
+    <t>2022:10:21 11:56:44</t>
+  </si>
+  <si>
+    <t>2022:10:21 11:57:27</t>
+  </si>
+  <si>
+    <t>2022:10:21 11:58:10</t>
+  </si>
+  <si>
+    <t>2022:10:21 11:59:57</t>
+  </si>
+  <si>
+    <t>2022:10:21 12:00:49</t>
+  </si>
+  <si>
+    <t>2022:10:21 12:01:39</t>
+  </si>
+  <si>
+    <t>2022:10:21 12:02:29</t>
+  </si>
+  <si>
+    <t>2022:10:21 12:03:21</t>
+  </si>
+  <si>
+    <t>2022:10:21 12:04:13</t>
+  </si>
+  <si>
+    <t>2022:10:21 12:05:24</t>
+  </si>
+  <si>
+    <t>2022:10:21 12:06:29</t>
+  </si>
+  <si>
+    <t>2022:10:21 12:07:29</t>
+  </si>
+  <si>
+    <t>2022:10:21 12:08:30</t>
+  </si>
+  <si>
+    <t>2022:10:21 12:09:33</t>
+  </si>
+  <si>
+    <t>2022:10:21 12:10:32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +321,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,10 +356,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -505,202 +677,692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFF06AE-9962-41C3-9D75-95BD6989216A}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="5" width="21.28515625" customWidth="1"/>
+    <col min="3" max="4" customWidth="true" width="21.0"/>
+    <col min="5" max="6" customWidth="true" width="21.28515625"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625"/>
+    <col min="10" max="10" customWidth="true" width="20.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>123</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="sm@mailinator.com" xr:uid="{D324683E-6EE7-41C3-8C34-249A1EDCBA7D}"/>
-    <hyperlink ref="E2" r:id="rId2" display="12345678x@X" xr:uid="{99DCCF2C-1C56-404F-9063-82E399BC07DF}"/>
-    <hyperlink ref="D3" r:id="rId3" display="sm@mailinator.com" xr:uid="{17231C23-74A4-4050-91FF-F2C8B19CE638}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{CCF32FBB-61B7-4E4D-9E5D-0066AC2C7D33}"/>
+    <hyperlink ref="E2" r:id="rId1" display="sm@mailinator.com" xr:uid="{D324683E-6EE7-41C3-8C34-249A1EDCBA7D}"/>
+    <hyperlink ref="F2" r:id="rId2" display="12345678x@X" xr:uid="{99DCCF2C-1C56-404F-9063-82E399BC07DF}"/>
+    <hyperlink ref="E3" r:id="rId3" display="sm@mailinator.com" xr:uid="{CDC01681-5103-4264-A734-245632E12F3C}"/>
+    <hyperlink ref="E4" r:id="rId4" display="sm@mailinator.com" xr:uid="{F093E44B-343B-4069-8719-D868ED107568}"/>
+    <hyperlink ref="E5" r:id="rId5" display="sm@mailinator.com" xr:uid="{CC40AD8C-4AA8-43EA-A041-8D47A27889D5}"/>
+    <hyperlink ref="F3" r:id="rId6" display="12345678x@X" xr:uid="{F7DC5853-E1DA-4730-9E92-AB47CC0ABB31}"/>
+    <hyperlink ref="F4" r:id="rId7" display="12345678x@X" xr:uid="{6CEDEE71-56E7-4C16-80CE-D19B3991DE4F}"/>
+    <hyperlink ref="F5" r:id="rId8" display="12345678x@X" xr:uid="{8726BCCE-542D-4484-AD89-B530B9795A23}"/>
+    <hyperlink ref="E6" r:id="rId9" display="sm@mailinator.com" xr:uid="{1FE838BB-0126-4875-8232-0EDE8DD936BC}"/>
+    <hyperlink ref="E7" r:id="rId10" display="sm@mailinator.com" xr:uid="{B2AC1C11-CA5B-4108-BDF9-30DB3044A330}"/>
+    <hyperlink ref="E8" r:id="rId11" display="sm@mailinator.com" xr:uid="{1D0B726D-74DC-444D-8B48-76BC407542B3}"/>
+    <hyperlink ref="E9" r:id="rId12" display="sm@mailinator.com" xr:uid="{EB1CF6B7-D04D-4C30-BE32-45FD303FA5A3}"/>
+    <hyperlink ref="F6" r:id="rId13" display="12345678x@X" xr:uid="{B2B29C05-4522-45DB-933E-695FD8C87ABC}"/>
+    <hyperlink ref="F7" r:id="rId14" display="12345678x@X" xr:uid="{615A573D-DE8D-4891-A889-1228493DAC58}"/>
+    <hyperlink ref="F8" r:id="rId15" display="12345678x@X" xr:uid="{769323EE-AAED-4F00-87E2-4DFE1C907863}"/>
+    <hyperlink ref="F9" r:id="rId16" display="12345678x@X" xr:uid="{9396D315-2D11-4532-B4D4-AD3590BF6ED1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
   <ignoredErrors>
-    <ignoredError sqref="E2" numberStoredAsText="1"/>
+    <ignoredError sqref="E2:F2 E3:F9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A3598E-68FD-4C82-8AC9-43D1604AE970}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875"/>
+    <col min="4" max="4" customWidth="true" width="27.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="vl@mailinator.com" xr:uid="{D28EC9E2-4F3D-49EA-97C4-EDC0024B7A30}"/>
-    <hyperlink ref="E2" r:id="rId2" display="12345678x@X" xr:uid="{6B59314C-3264-4FB1-9232-192CDD9EBB3F}"/>
-    <hyperlink ref="E3:E5" r:id="rId3" display="12345678x@X" xr:uid="{CBC1DC97-4105-47C1-8D75-96CA50CE9259}"/>
-    <hyperlink ref="D3:D5" r:id="rId4" display="vl@mailinator.com" xr:uid="{F6B1FB31-1129-4397-A2B5-4A3639A177F8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <ignoredErrors>
-    <ignoredError sqref="E2:E5" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7251FA77-DFE4-4BC7-B66A-444F05666E27}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4520F09B-43E1-4FE9-B46E-75A55E0F6A38}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -710,29 +1372,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="15.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
